--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\goline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\goline\Stock_goline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E0549-F34D-41F6-827A-8EBF3F38FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDFBA3-8428-4A5C-9CA1-E9E68BDB7B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>question</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>actual_answer</t>
+  </si>
+  <si>
+    <t>time_seconds</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
   <si>
     <t>Lấy dữ liệu OHLCV 10 ngày gần nhất HPG?</t>
@@ -65,25 +71,19 @@
 2025-11-12 00:00:00  26,650  27,100  26,650  27,000   30.7M
 2025-11-13 00:00:00  27,000  27,050  26,550  26,550   18.9M
 === PHÂN TÍCH ===
-Dưới đây là dữ liệu OHLCV 10 ngày giao dịch gần nhất của cổ phiếu HPG:
-| time       | open  | high  | low   | close | volume     |
-| :--------- | :---- | :---- | :---- | :---- | :--------- |
-| 2025-10-31 | 26.90 | 27.10 | 26.70 | 26.70 | 19,779,100 |
-| 2025-11-03 | 26.75 | 26.90 | 26.05 | 26.05 | 28,356,600 |
-| 2025-11-04 | 26.15 | 26.85 | 25.95 | 26.75 | 37,767,100 |
-| 2025-11-05 | 26.45 | 26.75 | 26.25 | 26.30 | 20,835,300 |
-| 2025-11-06 | 26.35 | 26.50 | 26.10 | 26.10 | 21,207,600 |
-| 2025-11-07 | 26.15 | 26.55 | 26.00 | 26.05 | 55,100,200 |
-| 2025-11-10 | 26.20 | 26.75 | 26.10 | 26.45 | 48,017,900 |
-| 2025-11-11 | 26.60 | 26.90 | 26.45 | 26.60 | 31,332,100 |
-| 2025-11-12 | 26.65 | 27.10 | 26.65 | 27.00 | 30,662,900 |
-| 2025-11-13 | 27.00 | 27.05 | 26.55 | 26.55 | 18,927,500 |
-**Diễn giải:**
-*   Dữ liệu này bao gồm giá mở cửa (open), giá cao nhất (high), giá thấp nhất (low), giá đóng cửa (close) và khối lượng giao dịch (volume) cho mỗi ngày.
-*   Ngày giao dịch gần nhất là **13/11/2025**, với giá đóng cửa là **26.55** và khối lượng giao dịch là **18,927,500** cổ phiếu.
-*   Giá cao nhất trong 10 ngày này là **27.10** (đạt được vào ngày 31/10 và 12/11/2025).
-*   Giá thấp nhất trong 10 ngày này là **25.95** (vào ngày 04/11/2025).
-*   Khối lượng giao dịch cao nhất là **55,100,200** cổ phiếu vào ngày 07/11/2025.</t>
+Dưới đây là dữ liệu OHLCV (Mở cửa, Cao nhất, Thấp nhất, Đóng cửa, Khối lượng) 10 ngày gần nhất của cổ phiếu HPG, được trình bày dưới dạng tự nhiên:
+**Dữ liệu OHLCV 10 ngày gần nhất của HPG:**
+*   **Ngày 2025-10-30:** Mở cửa ở 27.40, cao nhất đạt 27.40, thấp nhất là 26.90, đóng cửa ở 26.90 với khối lượng 23,693,500.
+*   **Ngày 2025-10-31:** Mở cửa ở 26.90, cao nhất là 27.10, thấp nhất là 26.70, đóng cửa ở 26.70 với khối lượng 19,779,100.
+*   **Ngày 2025-11-03:** Mở cửa ở 26.75, cao nhất đạt 26.90, thấp nhất là 26.05, đóng cửa ở 26.05 với khối lượng 28,356,600.
+*   **Ngày 2025-11-04:** Mở cửa ở 26.15, cao nhất là 26.85, thấp nhất là 25.95, đóng cửa ở 26.75 với khối lượng 37,767,100.
+*   **Ngày 2025-11-05:** Mở cửa ở 26.45, cao nhất đạt 26.75, thấp nhất là 26.25, đóng cửa ở 26.30 với khối lượng 20,835,300.
+*   **Ngày 2025-11-06:** Mở cửa ở 26.35, cao nhất là 26.50, thấp nhất là 26.10, đóng cửa ở 26.10 với khối lượng 21,207,600.
+*   **Ngày 2025-11-07:** Mở cửa ở 26.15, cao nhất đạt 26.55, thấp nhất là 26.00, đóng cửa ở 26.05 với khối lượng 55,100,200.
+*   **Ngày 2025-11-10:** Mở cửa ở 26.20, cao nhất là 26.75, thấp nhất là 26.10, đóng cửa ở 26.45 với khối lượng 48,017,900.
+*   **Ngày 2025-11-11:** Mở cửa ở 26.60, cao nhất đạt 26.90, thấp nhất là 26.45, đóng cửa ở 26.60 với khối lượng 31,332,100.
+*   **Ngày 2025-11-12:** Mở cửa ở 26.65, cao nhất là 27.10, thấp nhất là 26.65, đóng cửa ở 27.00 với khối lượng 30,662,900.
+*   **Ngày 2025-11-13:** Mở cửa ở 27.00, cao nhất đạt 27.05, thấp nhất là 26.55, đóng cửa ở 26.55 với khối lượng 18,927,500.</t>
   </si>
   <si>
     <t>Lấy giá đóng của của mã VCB từ đầu tháng 11 theo khung 1d?</t>
@@ -129,13 +129,12 @@
 2025-11-12 00:00:00  59,500
 2025-11-13 00:00:00  59,800
 === PHÂN TÍCH ===
-Dựa trên dữ liệu được cung cấp, giá đóng cửa của mã VCB từ đầu tháng 11 năm 2025 (khung 1d) như sau:
+Dựa trên dữ liệu cổ phiếu Việt Nam bạn cung cấp, giá đóng cửa của mã VCB từ đầu tháng 11 như sau:
 *   **Ngày 07/11/2025:** 59.3
 *   **Ngày 10/11/2025:** 58.8
 *   **Ngày 11/11/2025:** 58.9
 *   **Ngày 12/11/2025:** 59.5
-*   **Ngày 13/11/2025:** 59.8
-**Lưu ý:** Dữ liệu mẫu chỉ hiển thị các ngày giao dịch từ 07/11/2025 trở đi trong tháng 11. Các ngày đầu tháng 11 trước đó không có trong dữ liệu mẫu được cung cấp.</t>
+*   **Ngày 13/11/2025:** 59.8</t>
   </si>
   <si>
     <t>Trong các mã BID, TCB và VCB mã nào có giá mở cửa thấp nhất trong 10 ngày qua</t>
@@ -163,6 +162,17 @@
 BID     2025-11-11 00:00:00
 BID     2025-11-12 00:00:00
 BID     2025-11-13 00:00:00
+TCB     2025-10-30 00:00:00
+TCB     2025-10-31 00:00:00
+TCB     2025-11-03 00:00:00
+TCB     2025-11-04 00:00:00
+TCB     2025-11-05 00:00:00
+TCB     2025-11-06 00:00:00
+TCB     2025-11-07 00:00:00
+TCB     2025-11-10 00:00:00
+TCB     2025-11-11 00:00:00
+TCB     2025-11-12 00:00:00
+TCB     2025-11-13 00:00:00
 VCB     2025-10-30 00:00:00
 VCB     2025-10-31 00:00:00
 VCB     2025-11-03 00:00:00
@@ -174,26 +184,14 @@
 VCB     2025-11-11 00:00:00
 VCB     2025-11-12 00:00:00
 VCB     2025-11-13 00:00:00
-TCB     2025-10-30 00:00:00
-TCB     2025-10-31 00:00:00
-TCB     2025-11-03 00:00:00
-TCB     2025-11-04 00:00:00
-TCB     2025-11-05 00:00:00
-TCB     2025-11-06 00:00:00
-TCB     2025-11-07 00:00:00
-TCB     2025-11-10 00:00:00
-TCB     2025-11-11 00:00:00
-TCB     2025-11-12 00:00:00
-TCB     2025-11-13 00:00:00
 === PHÂN TÍCH ===
-Dựa trên dữ liệu mẫu được cung cấp, không thể trả lời chính xác câu hỏi vì các lý do sau:
-1.  **Dữ liệu thiếu mã VCB:** Dữ liệu mẫu hoàn toàn không chứa thông tin về mã cổ phiếu VCB, do đó không thể so sánh giá mở cửa của VCB với BID và TCB.
-2.  **Dữ liệu chỉ là mẫu:** Dữ liệu được cung cấp chỉ là "MẪU (5 đầu + 5 cuối)" với tổng cộng 33 dòng, không phải toàn bộ dữ liệu của 10 ngày qua cho tất cả các mã.
-**Tuy nhiên, nếu chỉ xét dữ liệu mẫu được cung cấp cho BID và TCB:**
-*   **TCB** có giá mở cửa thấp nhất là **33.30** vào ngày 2025-11-10.
-*   **BID** có giá mở cửa thấp nhất là **37.10** vào ngày 2025-11-04.
-Do đó, trong phạm vi dữ liệu mẫu này và chỉ so sánh giữa BID và TCB, mã **TCB** có giá mở cửa thấp nhất với **33.30**.
-Để có câu trả lời chính xác và đầy đủ, cần có toàn bộ dữ liệu giá mở cửa của cả ba mã BID, TCB và VCB trong 10 ngày gần nhất.</t>
+Dựa trên dữ liệu bạn cung cấp, trong 10 ngày qua (tính từ ngày 30/10/2025 đến 13/11/2025):
+*   **Mã có giá mở cửa thấp nhất là TCB.**
+*   Giá mở cửa thấp nhất của TCB trong giai đoạn này là **33.30**.
+Dưới đây là thông tin chi tiết:
+*   **BID:** Giá mở cửa thấp nhất là **37.10** (ngày 04/11/2025).
+*   **TCB:** Giá mở cửa thấp nhất là **33.30** (ngày 10/11/2025).
+*   **VCB:** Giá mở cửa thấp nhất là **59.10** (hai ngày 11/11/2025 và 12/11/2025).</t>
   </si>
   <si>
     <t>Tổng khối lượng giao dịch (volume) của mã VIC trong vòng 1 tuần gần đây</t>
@@ -223,7 +221,18 @@
 2025-11-12 00:00:00    3.9M
 2025-11-13 00:00:00    3.1M
 === PHÂN TÍCH ===
-Tổng khối lượng giao dịch của mã VIC trong vòng 1 tuần gần đây (tính từ ngày 2025-11-05 đến 2025-11-13) là **24.402.200 cổ phiếu**.</t>
+Dựa trên dữ liệu bạn cung cấp, tổng khối lượng giao dịch (volume) của mã VIC trong vòng 1 tuần gần đây là:
+*   **Tổng khối lượng giao dịch (volume) của mã VIC trong vòng 1 tuần gần đây là 26.912.300**.
+Dưới đây là cách tính:
+*   Ngày 04/11/2025: 2.514.100
+*   Ngày 05/11/2025: 2.136.600
+*   Ngày 06/11/2025: 4.605.200
+*   Ngày 07/11/2025: 3.701.700
+*   Ngày 10/11/2025: 2.785.800
+*   Ngày 11/11/2025: 4.226.300
+*   Ngày 12/11/2025: 3.885.100
+*   Ngày 13/11/2025: 3.061.500
+**Cộng tất cả các ngày lại ta được tổng khối lượng giao dịch là 26.912.300.**</t>
   </si>
   <si>
     <t>So sánh khối lượng giao dịch của VIC với HPG trong 2 tuần gần đây</t>
@@ -275,29 +284,16 @@
 VIC     2025-11-12 00:00:00    3.9M
 VIC     2025-11-13 00:00:00    3.1M
 === PHÂN TÍCH ===
-Lỗi: 429 You exceeded your current quota, please check your plan and billing details. For more information on this error, head to: https://ai.google.dev/gemini-api/docs/rate-limits. To monitor your current usage, head to: https://ai.dev/usage?tab=rate-limit. 
-* Quota exceeded for metric: generativelanguage.googleapis.com/generate_content_free_tier_requests, limit: 10
-Please retry in 25.920829559s. [links {
-  description: "Learn more about Gemini API quotas"
-  url: "https://ai.google.dev/gemini-api/docs/rate-limits"
-}
-, violations {
-  quota_metric: "generativelanguage.googleapis.com/generate_content_free_tier_requests"
-  quota_id: "GenerateRequestsPerMinutePerProjectPerModel-FreeTier"
-  quota_dimensions {
-    key: "model"
-    value: "gemini-2.5-flash"
-  }
-  quota_dimensions {
-    key: "location"
-    value: "global"
-  }
-  quota_value: 10
-}
-, retry_delay {
-  seconds: 25
-}
-]</t>
+Dưới đây là so sánh khối lượng giao dịch của VIC và HPG trong 2 tuần gần đây dựa trên dữ liệu bạn cung cấp:
+**Nhìn chung:**
+Khối lượng giao dịch của **HPG** trong 2 tuần gần đây **cao hơn đáng kể** so với **VIC**.
+**Số liệu cụ thể:**
+*   **HPG:** Khối lượng giao dịch của HPG dao động trong khoảng từ **18.927.500** đến **55.100.200**. Khối lượng giao dịch trung bình của HPG trong giai đoạn này là khoảng **30.551.900**.
+*   **VIC:** Khối lượng giao dịch của VIC dao động trong khoảng từ **2.136.600** đến **7.461.600**. Khối lượng giao dịch trung bình của VIC trong giai đoạn này là khoảng **3.706.600**.
+**Điểm nổi bật:**
+*   Ngày **07/11/2025**, HPG ghi nhận khối lượng giao dịch cao nhất với **55.100.200**, trong khi VIC có khối lượng giao dịch là **3.701.700**.
+*   Ngược lại, ngày **05/11/2025**, cả hai mã đều có khối lượng giao dịch tương đối thấp, với HPG là **20.835.300** và VIC là **2.136.600**.
+Có thể thấy, HPG là cổ phiếu có thanh khoản cao hơn nhiều so với VIC trong giai đoạn 2 tuần được khảo sát.</t>
   </si>
   <si>
     <t>Danh sách cổ đông lớn của VCB</t>
@@ -311,7 +307,18 @@
 4 76434014 Trần Hùng Huy 153062159 0.039400 2025-01-24</t>
   </si>
   <si>
-    <t>Không hiểu câu hỏi. Vui lòng thử lại.</t>
+    <t>Tổng số dòng: 3
+=== TẤT CẢ DỮ LIỆU (3 DÒNG) ===
+share_holder               share_own_percent
+-------------------------  -----------------
+The State Bank Of Vietnam               0.75
+Mizuho Bank, Ltd.                       0.15
+Other                                   0.02
+=== PHÂN TÍCH ===
+Dựa trên dữ liệu được cung cấp, các cổ đông lớn của VCB (Ngân hàng TMCP Ngoại Thương Việt Nam) bao gồm:
+*   **Ngân hàng Nhà nước Việt Nam** là cổ đông lớn nhất, nắm giữ **74.80%** cổ phần.
+*   **Mizuho Bank, Ltd.** đứng thứ hai với **15.00%** cổ phần.
+*   Bên cạnh đó, còn có các cổ đông khác (Other) chiếm **1.51%** cổ phần.</t>
   </si>
   <si>
     <t>Danh sách ban lãnh đạo đang làm việc của VCB</t>
@@ -350,21 +357,16 @@
 La Thi Hong Minh      Chief Accountant                                                              0
 Nguyen Thanh Tung     Chairman of Management Board                                                  0
 === PHÂN TÍCH ===
-Dựa trên dữ liệu cung cấp, danh sách ban lãnh đạo đang làm việc của VCB (Vietcombank) bao gồm các vị trí và nhân sự chủ chốt sau:
-**1. Hội đồng quản trị:**
+Dựa trên dữ liệu được cung cấp, đây là danh sách ban lãnh đạo đang làm việc của VCB:
 *   **Chủ tịch Hội đồng quản trị:** Nguyễn Thanh Tùng
-*   **Tổng Giám đốc kiêm Thành viên Hội đồng quản trị:** Lê Quang Vinh
-*   **Thành viên Hội đồng quản trị độc lập:** Vũ Viết Ngoạn
-*   **Các Thành viên Hội đồng quản trị:** Nguyễn Thị Kim Oanh, Nguyễn Mạnh Hưng, Hồng Quang, Nguyễn Tuấn Anh, Đỗ Việt Hùng.
-**2. Ban Kiểm soát:**
+*   **Tổng Giám đốc:** Lê Quang Vinh
+*   **Các Thành viên Hội đồng quản trị:** Nguyễn Thị Kim Oanh, Nguyễn Mạnh Hùng, Hồng Quang, Nguyễn Tuấn Anh, Đỗ Việt Hùng
+*   **Thành viên độc lập Hội đồng quản trị:** Vũ Việt Ngoan
+*   **Người phụ trách Quản trị doanh nghiệp, Thư ký công ty:** Lê Viết Anh
+*   **Các Phó Tổng Giám đốc:** Lê Hoàng Tùng (kiêm Người phát ngôn), Phùng Nguyễn Hải Yến, Nguyễn Văn Tuấn, Đặng Hoài Đức, Hồ Văn Tuấn, Nguyễn Việt Cường
 *   **Trưởng Ban Kiểm soát:** Đinh Thị Thái
-*   **Các Thành viên Ban Kiểm soát:** Đỗ Thị Mai Hương, Trương Thị Diệu Quế, Trần Mỹ Hạnh.
-**3. Ban Điều hành (Phó Tổng Giám đốc):**
-*   **Phó Tổng Giám đốc kiêm Người phát ngôn:** Lê Hoàng Tùng
-*   **Các Phó Tổng Giám đốc khác:** Phùng Nguyễn Hải Yên, NGUYEN VAN TUAN, Đặng Hoài Đức, Hồ Văn Tuấn, Nguyễn Việt Cường.
-**4. Các vị trí chủ chốt khác:**
-*   **Kế toán trưởng:** Lã Thị Hồng Minh
-*   **Người phụ trách quản trị công ty kiêm Thư ký công ty:** Lê Việt Anh</t>
+*   **Các Thành viên Ban Kiểm soát:** Đỗ Thị Mai Hương, Trương Thị Diệu Quế, Trần Mỹ Hạnh
+*   **Kế toán trưởng:** La Thị Hồng Minh</t>
   </si>
   <si>
     <t>Các công ty con thuộc VCB</t>
@@ -399,21 +401,19 @@
 Vietnam Airlines Joint Stock Company                                                                 0.01
 PetroVietNam Driling &amp; Well Services Corporation                                                     0.00
 === PHÂN TÍCH ===
-Dựa trên dữ liệu được cung cấp, Ngân hàng TMCP Ngoại thương Việt Nam (VCB) có các công ty con với tỷ lệ sở hữu trên 50% như sau:
-**1. Các công ty con sở hữu 100%:**
-*   Vietnam Foreign Trade Joint Stock Bank Securities Company Limited
-*   Money Transfer Company Limited Joint Stock Commercial Bank For Foreign Trade Of Viet Nam
-*   Vietcombank Financial Leasing Co., Ltd
-*   Vietnam Finance Company In Hong Kong - Vinafico
-*   Vietnam Neo Bank
-*   Foreign Trade Of Vietnam Bank Limited In Laos
-**2. Các công ty con có tỷ lệ sở hữu trên 50% (nhưng dưới 100%):**
-*   Vcb Money Company (87.5%)
-*   Vietcombank Money Transfer Company (87.5%)
-*   Vietcombank Tower 198 Ltd (70%)
-*      Vietcombank-bonday-benthanh Joint Venture Company Limited (52%)
-*   Vietcombank Fund Management Company Limited (51%)
-Ngoài ra, VCB còn có các khoản đầu tư vào một số công ty khác với tỷ lệ sở hữu dưới 50% (ví dụ: Petrolimex Insurance Corporation, Vietnam Export Import Commercial Joint Stock Bank, Military Commercial Joint Stock Bank, Vietnam Airlines Joint Stock Company, v.v.), nhưng những công ty này không được coi là công ty con của VCB.</t>
+Dựa trên dữ liệu được cung cấp, các công ty con thuộc VCB (Ngân hàng TMCP Ngoại Thương Việt Nam) với tỷ lệ sở hữu quan trọng là:
+*   **Vietnam Foreign Trade Joint Stock Bank Securities Company Limited:** VCB sở hữu 100% cổ phần.
+*   **Money Transfer Company Limited Joint Stock Commercial Bank For Foreign Trade Of Viet Nam:** VCB sở hữu 100% cổ phần.
+*   **Vietcombank Financial Leasing Co., Ltd:** VCB sở hữu 100% cổ phần.
+*   **Vietnam Finance Company In Hong Kong - Vinafico:** VCB sở hữu 100% cổ phần.
+*   **Vietnam Neo Bank:** VCB sở hữu 100% cổ phần.
+*   **Foreign Trade Of Vietnam Bank Limited In Laos:** VCB sở hữu 100% cổ phần.
+*   **Vcb Money Company:** VCB sở hữu 87.5% cổ phần.
+*   **Vietcombank Money Transfer Company:** VCB sở hữu 87.5% cổ phần.
+*   **Vietcombank Tower 198 Ltd:** VCB sở hữu 70% cổ phần.
+*   **Vietcombank-bonday-benthanh Joint Venture Company Limited:** VCB sở hữu 52% cổ phần.
+*   **Vietcombank Fund Management Company Limited:** VCB sở hữu 51% cổ phần.
+Điều này cho thấy VCB có một hệ thống các công ty con đa dạng, hoạt động trong nhiều lĩnh vực khác nhau như chứng khoán, chuyển tiền, cho thuê tài chính, tài chính, ngân hàng quốc tế, quản lý quỹ và phát triển bất động sản, với phần lớn các công ty con thuộc sở hữu chi phối của VCB.</t>
   </si>
   <si>
     <t>Lấy cho tôi toàn bộ tên các lãnh đạo đang làm việc của VCB</t>
@@ -447,35 +447,35 @@
 La Thi Hong Minh      Chief Accountant                                                              0
 Nguyen Thanh Tung     Chairman of Management Board                                                  0
 === PHÂN TÍCH ===
-Dưới đây là danh sách toàn bộ tên các lãnh đạo đang làm việc tại VCB theo dữ liệu được cung cấp, được sắp xếp theo cấp bậc để dễ dàng nhận diện các vị trí quan trọng:
-**Ban Lãnh đạo cấp cao:**
-*   **Chủ tịch Hội đồng Quản trị:** Nguyễn Thanh Tùng
-*   **Tổng Giám đốc (kiêm Thành viên HĐQT):** Lê Quang Vinh
-**Các Phó Tổng Giám đốc:**
-*   Lê Hoàng Tùng (kiêm Người phát ngôn)
-*   Phùng Nguyễn Hải Yến
-*   NGUYEN VAN TUAN
-*   Đặng Hoài Đức
-*   Hồ Văn Tuấn
-*   Nguyễn Việt Cường
-**Kế toán trưởng:**
-*   La Thị Hồng Minh
-**Ban Kiểm soát:**
-*   **Trưởng Ban Kiểm soát:** Đinh Thị Thái
-*   **Thành viên Ban Kiểm soát:**
-    *   Đỗ Thị Mai Hương
-    *   Trương Thị Diệu Quế
-    *   Trần Mỹ Hạnh
-**Các Thành viên Hội đồng Quản trị khác:**
-*   Nguyễn Thị Kim Oanh
-*   Nguyễn Mạnh Hùng
-*   Hồng Quang
-*   Nguyễn Tuấn Anh
-*   Đỗ Việt Hùng
-*   Vũ Việt Ngoan (Thành viên độc lập)
-**Thư ký Công ty:**
-*   Lê Viết Anh (Phụ trách Quản trị Công ty)
-Đây là tất cả các vị trí lãnh đạo được liệt kê trong dữ liệu bạn cung cấp.</t>
+Dựa trên dữ liệu cung cấp, đây là danh sách các lãnh đạo đang làm việc của VCB:
+*   **Le Viet Anh**
+*   **Do Thi Mai Huong**
+*   **Truong Thi Dieu Que**
+*   **Tran My Hanh**
+*   **Le Quang Vinh**
+*   **Nguyen Thi Kim Oanh**
+*   **Nguyen Manh Hung**
+*   **Hong Quang**
+*   **Nguyen Tuan Anh**
+*   **Do Viet Hung**
+*   **Vu Viet Ngoan**
+*   **Dinh Thi Thai**
+*   **Le Hoang Tung**
+*   **Phung Nguyen Hai Yen**
+*   **NGUYEN VAN TUAN**
+*   **Dang Hoai Duc**
+*   **Ho Van Tuan**
+*   **Nguyen Viet Cuong**
+*   **La Thi Hong Minh**
+*   **Nguyen Thanh Tung**
+Trong số liệu này, chúng ta thấy có các vị trí quan trọng như:
+*   **Chủ tịch Hội đồng quản trị:** Nguyen Thanh Tung
+*   **Tổng Giám đốc:** Le Quang Vinh
+*   **Thành viên Hội đồng quản trị**
+*   **Thành viên Ban Kiểm soát**
+*   **Kế toán trưởng**
+*   **Người phụ trách Quản trị doanh nghiệp, Thư ký Công ty**
+*   **Người phát ngôn**</t>
   </si>
   <si>
     <t>Tính cho tôi SMA9 của mã VIC trong 2 tuần với timeframe 1d</t>
@@ -515,15 +515,13 @@
 2025-11-12 00:00:00  199,600  211,200  199,600  211,200    3.9M     201,400
 2025-11-13 00:00:00  210,000  215,800  209,200  211,200    3.1M  203,644.44
 === PHÂN TÍCH ===
-Dựa trên dữ liệu được cung cấp, dưới đây là chỉ số SMA9 của mã VIC trong giai đoạn 2 tuần gần nhất (từ ngày **2025-10-31 đến 2025-11-13**):
-*   **Trong giai đoạn từ 2025-10-31 đến 2025-11-06:** Chỉ số SMA9 chưa được tính toán (hiển thị NaN) do chưa đủ 9 ngày dữ liệu cần thiết để khởi tạo.
-*   **Từ ngày 2025-11-07 trở đi, các giá trị SMA9 của VIC là:**
-    *   **2025-11-07:** 204.18
-    *   **2025-11-10:** 201.83
-    *   **2025-11-11:** 200.61
-    *   **2025-11-12:** 201.40
-    *   **2025-11-13:** 203.64
-Đây là các số liệu quan trọng của SMA9 cho mã VIC trong 2 tuần gần nhất với timeframe 1 ngày.</t>
+Dựa trên dữ liệu được cung cấp, đây là kết quả tính toán SMA9 cho mã VIC trong khoảng thời gian 2 tuần với timeframe 1 ngày:
+**Số liệu quan trọng:**
+*   **SMA9 vào ngày 2025-11-13:** 203.644444
+**Ngôn ngữ tự nhiên:**
+Đường trung bình động đơn giản 9 kỳ (SMA9) cho mã cổ phiếu VIC vào ngày 13 tháng 11 năm 2025 là **203.644444**.
+**Lưu ý:**
+Dữ liệu bạn cung cấp chỉ bao gồm 13 ngày giao dịch. SMA9 yêu cầu 9 ngày dữ liệu để tính toán giá trị đầu tiên. Do đó, các ngày trước ngày 2025-11-07 sẽ có giá trị SMA9 là `NaN` (Not a Number) vì không đủ dữ liệu để tính toán.</t>
   </si>
   <si>
     <t>Tính cho tôi SMA9 và SMA20 của mã VIC trong 2 tháng với timeframe 1d</t>
@@ -576,110 +574,29 @@
 2025-11-10 199,000 201,833.33 206,220.00</t>
   </si>
   <si>
-    <t>Tính cho tôi RSI14 của TCB trong 1 tuần với timeframe 1m</t>
-  </si>
-  <si>
-    <t>Dưới đây là bảng tính RSI14 của mã TCB trong 1 tuần với khung thời gian 1 phút (một phần dữ liệu mẫu): 
-Thời gian Giá đóng cửa RSI14 
-2025-11-04 13:00 33,750 NaN 
-2025-11-04 13:01 33,600 NaN 
-2025-11-04 13:02 33,650 NaN 
-... ... ... 
-2025-11-11 11:26 33,500 47.33 
-2025-11-11 11:27 33,500 47.33 
-2025-11-11 11:28 33,550 53.71 
-2025-11-11 11:29 33,500 47.51 
-Do dữ liệu rất lớn (1141 dòng), nếu bạn cần toàn bộ bảng hoặc phân tích cụ thể, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
-  </si>
-  <si>
-    <t>Tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay</t>
-  </si>
-  <si>
-    <t>Dưới đây là bảng tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay theo khung thời gian 1 phút (một phần dữ liệu mẫu):
-Thời gian Giá đóng cửa SMA9 SMA20
-2025-11-03 09:15 35,150 35,150.00 35,150.00
-2025-11-03 09:16 35,200 35,175.00 35,175.00
-2025-11-03 09:17 35,250 35,200.00 35,200.00
-2025-11-03 09:18 35,450 35,262.50 35,262.50
-2025-11-03 09:19 35,500 35,310.00 35,310.00
-... ... ... ...
-2025-11-10 14:28 33,250 33,244.44 33,280.00
-2025-11-10 14:29 33,050 33,227.78 33,265.00
-2025-11-10 14:30 NaN 33,243.75 33,260.53
-2025-11-10 14:45 33,400 33,262.50 33,263.16
-2025-11-10 14:46 NaN 33,264.29 33,258.33
-Nếu bạn cần toàn bộ dữ liệu hoặc phân tích chi tiết hơn, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
-  </si>
-  <si>
-    <t>Tổng số dòng: 25
-=== TẤT CẢ DỮ LIỆU (25 DÒNG) ===
-time                 open    high    low     close   volume       SMA9      SMA20
--------------------  ------  ------  ------  ------  ------  ---------  ---------
-2025-10-10 00:00:00  39,100  39,900  39,000  39,350   20.3M  N/A        N/A
-2025-10-13 00:00:00  39,300  41,500  39,250  41,300   43.3M  N/A        N/A
-2025-10-14 00:00:00  41,750  42,000  40,550  40,800   25.9M  N/A        N/A
-2025-10-15 00:00:00  41,000  41,350  40,550  40,800   13.3M  N/A        N/A
-2025-10-16 00:00:00  41,200  41,250  40,800  41,250   20.2M  N/A        N/A
-2025-10-17 00:00:00  41,650  41,650  40,450  40,650   18.7M  N/A        N/A
-2025-10-20 00:00:00  40,650  40,650  37,850  37,850   30.0M  N/A        N/A
-2025-10-21 00:00:00  38,100  38,450  36,500  37,650   28.6M  N/A        N/A
-2025-10-22 00:00:00  38,100  38,150  36,400  38,000   15.7M  39,738.89  N/A
-2025-10-23 00:00:00  38,050  38,050  36,800  37,250   15.6M  39,505.56  N/A
-2025-10-24 00:00:00  37,000  37,000  36,050  36,100   23.4M  38,927.78  N/A
-2025-10-27 00:00:00  36,300  36,500  35,050  35,050   15.9M  38,288.89  N/A
-2025-10-28 00:00:00  35,050  36,400  34,000  36,000   26.1M  37,755.56  N/A
-2025-10-29 00:00:00  35,900  36,900  35,650  36,400   13.1M  37,216.67  N/A
-2025-10-30 00:00:00  36,500  36,600  35,600  35,700   10.5M  36,666.67  N/A
-2025-10-31 00:00:00  35,700  36,200  35,100  35,100   12.3M  36,361.11  N/A
-2025-11-03 00:00:00  35,100  35,500  33,600  33,600   16.7M  35,911.11  N/A
-2025-11-04 00:00:00  33,600  35,200  33,450  35,000   16.1M  35,577.78  N/A
-2025-11-05 00:00:00  34,900  34,900  34,050  34,100   11.2M  35,227.78  N/A
-2025-11-06 00:00:00  34,150  34,500  33,500  33,600   13.7M     34,950  37,277.50
-2025-11-07 00:00:00  33,600  33,950  33,000  33,000   16.1M  34,722.22     36,960
-2025-11-10 00:00:00  33,300  33,600  32,950  33,400    8.8M  34,433.33     36,565
-2025-11-11 00:00:00  33,450  34,000  33,350  33,650   11.2M  34,127.78  36,207.50
-2025-11-12 00:00:00  33,700  35,000  33,600  35,000   12.0M     34,050  35,917.50
-2025-11-13 00:00:00  34,650  35,500  34,600  35,100   12.5M     34,050     35,610
-=== PHÂN TÍCH ===
-Dựa trên dữ liệu cung cấp và yêu cầu, ta có thể tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay như sau:
-*   **SMA9 (Simple Moving Average - Trung bình động giản đơn 9 phiên):**
-    *   Ngày 07/11: 34.72
-    *   Ngày 10/11: 34.43
-    *   Ngày 11/11: 34.13
-    *   Ngày 12/11: 34.05
-    *   Ngày 13/11: 34.05
-*   **SMA20 (Simple Moving Average - Trung bình động giản đơn 20 phiên):**
-    *   Ngày 07/11: 36.96
-    *   Ngày 10/11: 36.56
-    *   Ngày 11/11: 36.21
-    *   Ngày 12/11: 35.92
-    *   Ngày 13/11: 35.61
-**Lưu ý:** Dữ liệu chỉ cung cấp đến ngày 13/11, vì vậy kết quả chỉ tính đến thời điểm này. Giá trị SMA9 và SMA20 thay đổi theo từng phiên giao dịch.</t>
-  </si>
-  <si>
     <t>Tổng số dòng: 46
 === TẤT CẢ DỮ LIỆU (46 DÒNG) ===
 time                 open     high     low      close    volume        SMA9    SMA20
 -------------------  -------  -------  -------  -------  ------  ----------  -------
-2025-09-11 00:00:00  130,000  137,500  129,100  136,000    3.0M  N/A         N/A
-2025-09-12 00:00:00  136,000  138,100  134,100  137,800    2.0M  N/A         N/A
-2025-09-15 00:00:00  137,700  137,800  134,800  137,800    2.1M  N/A         N/A
-2025-09-16 00:00:00  137,800  137,800  133,900  135,000    2.9M  N/A         N/A
-2025-09-17 00:00:00  133,500  143,900  133,400  143,100    4.0M  N/A         N/A
-2025-09-18 00:00:00  143,500  149,900  141,500  145,000    4.4M  N/A         N/A
-2025-09-19 00:00:00  145,000  153,200  143,000  153,200    5.6M  N/A         N/A
-2025-09-22 00:00:00  149,700  154,200  143,900  148,800    5.1M  N/A         N/A
-2025-09-23 00:00:00  148,000  150,100  145,600  149,200    1.4M  142,877.78  N/A
-2025-09-24 00:00:00  149,000  152,000  145,600  149,000    1.8M  144,322.22  N/A
-2025-09-25 00:00:00  149,000  158,000  146,900  158,000    2.8M  146,566.67  N/A
-2025-09-26 00:00:00  158,000  164,900  156,000  164,000    2.7M  149,477.78  N/A
-2025-09-29 00:00:00  162,300  174,800  161,000  172,800    2.4M  153,677.78  N/A
-2025-09-30 00:00:00  173,500  183,000  173,500  174,900    4.7M  157,211.11  N/A
-2025-10-01 00:00:00  174,900  175,000  167,800  170,000    2.6M  159,988.89  N/A
-2025-10-02 00:00:00  168,800  175,700  168,800  171,000    2.4M  161,966.67  N/A
-2025-10-03 00:00:00  172,000  179,300  171,100  176,500    4.9M  165,044.44  N/A
-2025-10-06 00:00:00  186,800  186,800  176,500  179,700    2.4M  168,433.33  N/A
-2025-10-07 00:00:00  181,100  182,000  178,000  180,000    2.4M  171,877.78  N/A
+2025-09-11 00:00:00  130,000  137,500  129,100  136,000    3.0M  N/A         N/A    
+2025-09-12 00:00:00  136,000  138,100  134,100  137,800    2.0M  N/A         N/A    
+2025-09-15 00:00:00  137,700  137,800  134,800  137,800    2.1M  N/A         N/A    
+2025-09-16 00:00:00  137,800  137,800  133,900  135,000    2.9M  N/A         N/A    
+2025-09-17 00:00:00  133,500  143,900  133,400  143,100    4.0M  N/A         N/A    
+2025-09-18 00:00:00  143,500  149,900  141,500  145,000    4.4M  N/A         N/A    
+2025-09-19 00:00:00  145,000  153,200  143,000  153,200    5.6M  N/A         N/A    
+2025-09-22 00:00:00  149,700  154,200  143,900  148,800    5.1M  N/A         N/A    
+2025-09-23 00:00:00  148,000  150,100  145,600  149,200    1.4M  142,877.78  N/A    
+2025-09-24 00:00:00  149,000  152,000  145,600  149,000    1.8M  144,322.22  N/A    
+2025-09-25 00:00:00  149,000  158,000  146,900  158,000    2.8M  146,566.67  N/A    
+2025-09-26 00:00:00  158,000  164,900  156,000  164,000    2.7M  149,477.78  N/A    
+2025-09-29 00:00:00  162,300  174,800  161,000  172,800    2.4M  153,677.78  N/A    
+2025-09-30 00:00:00  173,500  183,000  173,500  174,900    4.7M  157,211.11  N/A    
+2025-10-01 00:00:00  174,900  175,000  167,800  170,000    2.6M  159,988.89  N/A    
+2025-10-02 00:00:00  168,800  175,700  168,800  171,000    2.4M  161,966.67  N/A    
+2025-10-03 00:00:00  172,000  179,300  171,100  176,500    4.9M  165,044.44  N/A    
+2025-10-06 00:00:00  186,800  186,800  176,500  179,700    2.4M  168,433.33  N/A    
+2025-10-07 00:00:00  181,100  182,000  178,000  180,000    2.4M  171,877.78  N/A    
 2025-10-08 00:00:00  179,000  180,900  175,200  178,100    3.3M  174,111.11  157,995
 2025-10-09 00:00:00  177,000  181,600  176,300  179,500    4.1M  175,833.33  160,170
 2025-10-10 00:00:00  178,500  192,000  178,500  192,000    4.3M  177,966.67  162,880
@@ -708,82 +625,565 @@
 2025-11-12 00:00:00  199,600  211,200  199,600  211,200    3.9M     201,400  205,760
 2025-11-13 00:00:00  210,000  215,800  209,200  211,200    3.1M  203,644.44  205,665
 === PHÂN TÍCH ===
-Dựa trên dữ liệu cung cấp, SMA9 và SMA20 của cổ phiếu VIC trong 2 tháng (từ ngày 2025-09-11 đến 2025-11-13) với timeframe 1 ngày được tính toán như sau:
-*   **SMA9:** Đường trung bình động giản đơn trong 9 ngày.
-*   **SMA20:** Đường trung bình động giản đơn trong 20 ngày.
-**Số liệu quan trọng (5 dòng cuối cùng có giá trị SMA9 và SMA20):**
-| Time       | Close | SMA9       | SMA20      |
-|------------|-------|------------|------------|
-| 2025-11-07 | 199.7 | 204.177778 | 206.540    |
-| 2025-11-10 | 199.0 | 201.833333 | 206.220    |
-| 2025-11-11 | 201.0 | 200.611111 | 205.675    |
-| 2025-11-12 | 211.2 | 201.400000 | 205.760    |
-| 2025-11-13 | 211.2 | 203.644444 | 205.665    |
+Dựa trên dữ liệu bạn cung cấp, tôi xin đưa ra các số liệu quan trọng về SMA9 và SMA20 của mã VIC trong 2 tháng (từ 11/09/2025 đến 13/11/2025) với timeframe 1 ngày:
+**Số liệu quan trọng:**
+*   **SMA9 (Trung bình động giản đơn 9 kỳ):**
+    *   Ngày 07/11/2025: **204.18**
+    *   Ngày 10/11/2025: **201.83**
+    *   Ngày 11/11/2025: **200.61**
+    *   Ngày 12/11/2025: **201.40**
+    *   Ngày 13/11/2025: **203.64**
+*   **SMA20 (Trung bình động giản đơn 20 kỳ):**
+    *   Ngày 07/11/2025: **206.54**
+    *   Ngày 10/11/2025: **206.22**
+    *   Ngày 11/11/2025: **205.68**
+    *   Ngày 12/11/2025: **205.76**
+    *   Ngày 13/11/2025: **205.67**
 **Ngôn ngữ tự nhiên:**
-Trong 5 ngày cuối cùng của giai đoạn 2 tháng được xem xét, giá đóng cửa của cổ phiếu VIC dao động từ 199.7 đến 211.2. Đường SMA9 (đường trung bình 9 ngày) cho thấy xu hướng tăng nhẹ, từ khoảng 200 lên 203.6. Trong khi đó, đường SMA20 (đường trung bình 20 ngày) có xu hướng đi ngang, dao động nhẹ quanh mức 205-206.
-================================================================================</t>
-  </si>
-  <si>
-    <t>Tổng số dòng: 46
-=== TẤT CẢ DỮ LIỆU (46 DÒNG) ===
-time                 open     high     low      close    volume        SMA9    SMA20
--------------------  -------  -------  -------  -------  ------  ----------  -------
-2025-09-11 00:00:00  130,000  137,500  129,100  136,000    3.0M  N/A         N/A
-2025-09-12 00:00:00  136,000  138,100  134,100  137,800    2.0M  N/A         N/A
-2025-09-15 00:00:00  137,700  137,800  134,800  137,800    2.1M  N/A         N/A
-2025-09-16 00:00:00  137,800  137,800  133,900  135,000    2.9M  N/A         N/A
-2025-09-17 00:00:00  133,500  143,900  133,400  143,100    4.0M  N/A         N/A
-2025-09-18 00:00:00  143,500  149,900  141,500  145,000    4.4M  N/A         N/A
-2025-09-19 00:00:00  145,000  153,200  143,000  153,200    5.6M  N/A         N/A
-2025-09-22 00:00:00  149,700  154,200  143,900  148,800    5.1M  N/A         N/A
-2025-09-23 00:00:00  148,000  150,100  145,600  149,200    1.4M  142,877.78  N/A
-2025-09-24 00:00:00  149,000  152,000  145,600  149,000    1.8M  144,322.22  N/A
-2025-09-25 00:00:00  149,000  158,000  146,900  158,000    2.8M  146,566.67  N/A
-2025-09-26 00:00:00  158,000  164,900  156,000  164,000    2.7M  149,477.78  N/A
-2025-09-29 00:00:00  162,300  174,800  161,000  172,800    2.4M  153,677.78  N/A
-2025-09-30 00:00:00  173,500  183,000  173,500  174,900    4.7M  157,211.11  N/A
-2025-10-01 00:00:00  174,900  175,000  167,800  170,000    2.6M  159,988.89  N/A
-2025-10-02 00:00:00  168,800  175,700  168,800  171,000    2.4M  161,966.67  N/A
-2025-10-03 00:00:00  172,000  179,300  171,100  176,500    4.9M  165,044.44  N/A
-2025-10-06 00:00:00  186,800  186,800  176,500  179,700    2.4M  168,433.33  N/A
-2025-10-07 00:00:00  181,100  182,000  178,000  180,000    2.4M  171,877.78  N/A
-2025-10-08 00:00:00  179,000  180,900  175,200  178,100    3.3M  174,111.11  157,995
-2025-10-09 00:00:00  177,000  181,600  176,300  179,500    4.1M  175,833.33  160,170
-2025-10-10 00:00:00  178,500  192,000  178,500  192,000    4.3M  177,966.67  162,880
-2025-10-13 00:00:00  193,900  205,400  193,900  205,400    7.2M  181,355.56  166,260
-2025-10-14 00:00:00  215,900  219,700  206,900  211,900    8.1M  186,011.11  170,105
-2025-10-15 00:00:00  214,100  214,900  206,000  209,500    3.8M  190,288.89  173,425
-2025-10-16 00:00:00  210,000  217,600  205,900  213,100    5.2M  194,355.56  176,830
-2025-10-17 00:00:00  214,100  214,600  199,900  204,000    5.6M  197,055.56  179,370
-2025-10-20 00:00:00  200,000  204,500  190,000  194,900    5.7M  198,711.11  181,675
-2025-10-21 00:00:00  202,000  204,900  193,700  203,400    3.7M  201,522.22  184,385
-2025-10-22 00:00:00  204,000  204,000  193,000  203,000    4.2M  204,133.33  187,085
-2025-10-23 00:00:00  202,900  215,500  200,000  215,000    4.8M  206,688.89  189,935
-2025-10-24 00:00:00  215,400  222,900  215,100  219,000    3.4M     208,200  192,685
-2025-10-27 00:00:00  222,900  226,500  214,000  214,000    3.9M  208,433.33  194,745
-2025-10-28 00:00:00  213,500  220,600  199,100  220,100    5.2M  209,611.11  197,005
-2025-10-29 00:00:00  219,000  219,000  211,900  212,000    2.7M  209,488.89  199,105
-2025-10-30 00:00:00  210,500  211,800  201,500  204,100    3.8M     209,500  200,760
-2025-10-31 00:00:00  202,000  203,700  191,000  191,000    7.5M  209,066.67  201,485
-2025-11-03 00:00:00  191,100  199,500  186,000  195,400    3.6M  208,177.78  202,270
-2025-11-04 00:00:00  198,000  204,900  196,100  201,000    2.5M  207,955.56  203,320
-2025-11-05 00:00:00  201,000  208,000  198,500  206,500    2.1M  207,011.11  204,740
-2025-11-06 00:00:00  206,000  211,500  203,800  207,800    4.6M  205,766.67  206,155
-2025-11-07 00:00:00  205,000  207,900  199,700  199,700    3.7M  204,177.78  206,540
-2025-11-10 00:00:00  198,800  204,000  193,300  199,000    2.8M  201,833.33  206,220
-2025-11-11 00:00:00  199,000  203,900  198,700  201,000    4.2M  200,611.11  205,675
-2025-11-12 00:00:00  199,600  211,200  199,600  211,200    3.9M     201,400  205,760
-2025-11-13 00:00:00  210,000  215,800  209,200  211,200    3.1M  203,644.44  205,665
+Trong giai đoạn từ ngày 07/11/2025 đến ngày 13/11/2025, **đường trung bình động 9 ngày (SMA9) của mã VIC đã có xu hướng giảm nhẹ rồi tăng trở lại, dao động quanh mức 200.61 đến 204.18.**
+Trong khi đó, **đường trung bình động 20 ngày (SMA20) cho thấy sự ổn định hơn, với các giá trị dao động quanh mức 205.67 đến 206.54.**
+Quan sát sự tương quan giữa SMA9 và SMA20 có thể cung cấp thêm thông tin về xu hướng giá trong ngắn hạn và trung hạn của mã VIC.</t>
+  </si>
+  <si>
+    <t>Tính cho tôi RSI14 của TCB trong 1 tuần với timeframe 1m</t>
+  </si>
+  <si>
+    <t>Dưới đây là bảng tính RSI14 của mã TCB trong 1 tuần với khung thời gian 1 phút (một phần dữ liệu mẫu): 
+Thời gian Giá đóng cửa RSI14 
+2025-11-04 13:00 33,750 NaN 
+2025-11-04 13:01 33,600 NaN 
+2025-11-04 13:02 33,650 NaN 
+... ... ... 
+2025-11-11 11:26 33,500 47.33 
+2025-11-11 11:27 33,500 47.33 
+2025-11-11 11:28 33,550 53.71 
+2025-11-11 11:29 33,500 47.51 
+Do dữ liệu rất lớn (1141 dòng), nếu bạn cần toàn bộ bảng hoặc phân tích cụ thể, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
+  </si>
+  <si>
+    <t>Tổng số dòng: 2731
+=== TẤT CẢ DỮ LIỆU (2731 DÒNG) ===
+time                 open    high    low     close   volume   RSI      
+-------------------  ------  ------  ------  ------  -------  ---------
+2025-10-28 13:58:00  34,600  34,600  34,550  34,550   74,700  N/A      
+2025-10-28 13:59:00  34,500  34,650  34,500  34,650  206,100  N/A      
+2025-10-28 14:00:00  34,700  34,750  34,700  34,750  289,600  N/A      
+2025-10-28 14:01:00  34,750  34,800  34,700  34,800  289,300  N/A      
+2025-10-28 14:02:00  34,800  34,800  34,700  34,750  123,400  N/A      
+2025-10-28 14:03:00  34,750  34,800  34,750  34,800  198,400  N/A      
+2025-10-28 14:04:00  34,800  34,850  34,800  34,800  136,900  N/A      
+2025-10-28 14:05:00  34,850  34,850  34,750  34,800   92,500  N/A      
+2025-10-28 14:06:00  34,800  34,800  34,750  34,800   26,100  N/A      
+2025-10-28 14:07:00  34,800  34,800  34,700  34,700  102,500  N/A      
+2025-10-28 14:08:00  34,700  34,700  34,600  34,650   59,300  N/A      
+2025-10-28 14:09:00  34,650  34,650  34,600  34,650   27,000  N/A      
+2025-10-28 14:10:00  34,600  34,650  34,600  34,650  113,300  N/A      
+2025-10-28 14:11:00  34,650  34,700  34,600  34,700   40,100  57,155.17
+2025-10-28 14:12:00  34,700  34,700  34,650  34,650    7,700  49,071.28
+2025-10-28 14:13:00  34,650  34,700  34,650  34,700   89,800  55,803.22
+2025-10-28 14:14:00  34,700  34,700  34,650  34,700   13,300  55,803.22
+2025-10-28 14:15:00  34,700  34,700  34,650  34,700   91,300  55,803.22
+2025-10-28 14:16:00  34,700  34,800  34,650  34,800  129,000  66,774.04
+2025-10-28 14:17:00  34,800  34,800  34,750  34,800  120,200  66,774.04
+2025-10-28 14:18:00  34,800  34,850  34,800  34,800   52,600  66,774.04
+2025-10-28 14:19:00  34,850  35,000  34,800  35,000     1.0M  79,490.89
+2025-10-28 14:20:00  35,000  35,300  35,000  35,300  740,000  87,326.52
+2025-10-28 14:21:00  35,300  35,850  35,300  35,850  793,400  92,775.83
+2025-10-28 14:22:00  35,850  36,050  35,700  35,700  406,200  82,373.17
+2025-10-28 14:23:00  35,700  35,800  35,550  35,600   98,400  76,236.06
+2025-10-28 14:24:00  35,550  35,600  35,300  35,400   62,600  65,694.16
+2025-10-28 14:25:00  35,400  35,450  35,350  35,450   49,300  66,925.49
+2025-10-28 14:26:00  35,450  35,450  35,400  35,400   26,100  64,434.84
+2025-10-28 14:27:00  35,450  35,500  35,450  35,500   62,900  67,074.05
+2025-10-28 14:28:00  35,450  35,700  35,450  35,500  370,200  67,074.05
+2025-10-28 14:29:00  35,650  36,400  35,500  36,300     1.0M  80,499.99
+2025-10-28 14:45:00  36,000  36,000  36,000  36,000     1.2M  69,118.11
+2025-10-29 09:15:00  35,900  35,950  35,800  35,800  372,800  62,748.47
+2025-10-29 09:16:00  35,850  35,850  35,700  35,750   55,000  61,229.30
+2025-10-29 09:17:00  35,750  35,850  35,750  35,850  168,000  63,150.82
+2025-10-29 09:18:00  35,850  35,850  35,800  35,850   11,000  63,150.82
+2025-10-29 09:19:00  35,850  35,950  35,850  35,950  115,200  65,153.76
+2025-10-29 09:20:00  35,950  35,950  35,850  35,900   79,500  63,301.06
+2025-10-29 09:21:00  35,950  35,950  35,850  35,900  114,900  63,301.06
+2025-10-29 09:22:00  35,900  35,900  35,700  35,700  153,600  55,923.84
+2025-10-29 09:23:00  35,850  35,850  35,650  35,700   16,200  55,923.84
+2025-10-29 09:24:00  35,750  35,800  35,750  35,800    3,200  58,713.97
+2025-10-29 09:25:00  35,800  35,800  35,800  35,800   18,200  58,713.97
+2025-10-29 09:26:00  35,800  35,850  35,800  35,850  116,100  60,175.83
+2025-10-29 09:27:00  35,850  35,850  35,850  35,850    7,000  60,175.83
+2025-10-29 09:28:00  35,850  35,900  35,800  35,900   97,600  61,746.71
+2025-10-29 09:29:00  35,900  35,900  35,900  35,900    5,500  61,746.71
+2025-10-29 09:30:00  35,900  35,950  35,900  35,900   90,700  61,746.71
+2025-10-29 09:31:00  35,950  35,950  35,750  35,800   74,900  56,208.36
+2025-10-29 09:32:00  35,800  35,850  35,800  35,850    7,300  58,225.93
+2025-10-29 09:33:00  35,850  35,900  35,750  35,800  110,100  55,473.56
+2025-10-29 09:34:00  35,800  35,950  35,750  35,900  145,800  59,588.04
+2025-10-29 09:35:00  35,900  35,900  35,750  35,750   92,300  51,848.59
+2025-10-29 09:36:00  35,800  35,900  35,750  35,900   84,400  57,757.24
+2025-10-29 09:37:00  35,850  35,950  35,850  35,900   33,800  57,757.24
+2025-10-29 09:38:00  35,950  35,950  35,850  35,850   19,300  55,141.43
+2025-10-29 09:39:00  35,850  35,900  35,850  35,900    3,400  57,227.59
+2025-10-29 09:40:00  35,950  35,950  35,900  35,900    9,400  57,227.59
+2025-10-29 09:41:00  35,900  35,950  35,850  35,900   50,100  57,227.59
+2025-10-29 09:42:00  35,900  35,900  35,900  35,900   30,900  57,227.59
+2025-10-29 09:43:00  35,950  35,950  35,900  35,950   15,200  59,745.58
+2025-10-29 09:44:00  35,950  36,000  35,900  36,000   26,200  62,145.48
+2025-10-29 09:45:00  35,950  36,050  35,950  36,000  126,200  62,145.48
+2025-10-29 09:46:00  36,000  36,050  36,000  36,000   68,700  62,145.48
+2025-10-29 09:47:00  36,050  36,050  36,000  36,050   26,700  64,768.85
+2025-10-29 09:48:00  36,000  36,050  36,000  36,050   68,600  64,768.85
+2025-10-29 09:49:00  36,100  36,100  36,050  36,100  122,900  67,389.84
+2025-10-29 09:50:00  36,100  36,150  36,100  36,150  132,200  69,808.66
+2025-10-29 09:51:00  36,150  36,200  36,100  36,100   32,200  64,644.85
+2025-10-29 09:52:00  36,100  36,100  36,000  36,050   80,000  59,875.14
+2025-10-29 09:53:00  36,100  36,100  36,050  36,100   20,600  62,828.73
+2025-10-29 09:54:00  36,100  36,100  35,950  36,000  251,000  54,230.73
+2025-10-29 09:55:00  36,000  36,000  35,950  35,950    8,400  50,508.87
+2025-10-29 09:56:00  35,950  36,000  35,950  35,950  214,700  50,508.87
+2025-10-29 09:57:00  36,000  36,000  35,900  36,000    8,900  54,157.68
+2025-10-29 09:58:00  36,000  36,000  35,900  36,000    8,300  54,157.68
+2025-10-29 09:59:00  36,000  36,000  35,950  35,950    6,900  49,891.67
+2025-10-29 10:00:00  35,950  36,000  35,900  36,000   60,400  53,809.94
+2025-10-29 10:01:00  35,950  35,950  35,900  35,900   58,800  46,053.51
+2025-10-29 10:02:00  35,900  35,900  35,900  35,900    7,400  46,053.51
+2025-10-29 10:03:00  35,900  36,000  35,900  35,950    2,500  50,214.90
+2025-10-29 10:04:00  36,000  36,000  35,900  36,000   43,600  54,033.48
+2025-10-29 10:05:00  35,950  36,000  35,950  35,950    8,900  49,910.78
+2025-10-29 10:06:00  36,000  36,000  35,950  35,950   38,300  49,910.78
+2025-10-29 10:07:00  35,950  36,000  35,950  36,000   19,200  53,982.78
+2025-10-29 10:08:00  35,950  35,950  35,950  35,950    2,600  49,637.13
+2025-10-29 10:09:00  35,950  36,000  35,950  35,950   39,200  49,637.13
+2025-10-29 10:10:00  35,950  35,950  35,900  35,950   36,200  49,637.13
+2025-10-29 10:11:00  35,900  35,950  35,900  35,950    7,300  49,637.13
+2025-10-29 10:12:00  35,950  35,950  35,900  35,900   54,400  44,787.63
+2025-10-29 10:13:00  35,900  35,950  35,900  35,900   56,800  44,787.63
+2025-10-29 10:14:00  35,900  35,950  35,900  35,900   48,400  44,787.63
+2025-10-29 10:15:00  35,900  35,950  35,900  35,950   16,500  50,792.15
+2025-10-29 10:16:00  35,950  35,950  35,950  35,950    1,100  50,792.15
+2025-10-29 10:17:00  35,950  35,950  35,850  35,850  195,400  40,560.52
+2025-10-29 10:18:00  35,850  35,850  35,850  35,850   14,100  40,560.52
+2025-10-29 10:19:00  35,850  35,850  35,850  35,850    3,600  40,560.52
+2025-10-29 10:20:00  35,900  35,900  35,850  35,850   35,000  40,560.52
+2025-10-29 10:21:00  35,850  35,850  35,800  35,800  154,400  35,721.21
+2025-10-29 10:22:00  35,800  35,850  35,800  35,850    9,400  43,039.93
+2025-10-29 10:23:00  35,850  35,850  35,800  35,800   70,000  38,338.91
+2025-10-29 10:24:00  35,800  35,800  35,750  35,750   84,300  34,303.87
+2025-10-29 10:25:00  35,800  35,850  35,800  35,850   57,500  46,444.18
+2025-10-29 10:26:00  35,850  35,900  35,800  35,800   15,300  42,240.99
+2025-10-29 10:27:00  35,850  35,900  35,850  35,900    2,100  51,662.97
+2025-10-29 10:28:00  35,900  35,900  35,850  35,850    6,500  47,491.46
+2025-10-29 10:29:00  35,850  35,900  35,850  35,850   17,900  47,491.46
+2025-10-29 10:30:00  35,900  35,900  35,850  35,900   35,000  51,987.57
+2025-10-29 10:31:00  35,900  35,950  35,850  35,950   59,900  56,041.14
+2025-10-29 10:32:00  35,950  35,950  35,900  35,900   24,900  51,370.44
+2025-10-29 10:33:00  35,950  35,950  35,900  35,900   30,400  51,370.44
+2025-10-29 10:34:00  35,950  35,950  35,900  35,950   23,500  55,656.64
+2025-10-29 10:35:00  35,950  35,950  35,900  35,950   23,500  55,656.64
+2025-10-29 10:36:00  35,950  35,950  35,950  35,950   27,500  55,656.64
+2025-10-29 10:37:00  35,950  35,950  35,900  35,900   28,400  50,137.30
+2025-10-29 10:38:00  35,950  35,950  35,900  35,900    5,400  50,137.30
+2025-10-29 10:39:00  35,900  36,000  35,900  35,900   23,800  50,137.30
+2025-10-29 10:40:00  35,900  36,000  35,900  35,950   10,200  55,632.57
+2025-10-29 10:41:00  36,000  36,000  35,950  35,950   42,600  55,632.57
+2025-10-29 10:42:00  35,950  35,950  35,950  35,950    7,000  55,632.57
+2025-10-29 10:43:00  36,000  36,000  35,950  35,950   48,900  55,632.57
+2025-10-29 10:44:00  35,950  35,950  35,900  35,950   26,600  55,632.57
+2025-10-29 10:45:00  35,950  36,000  35,900  35,950   22,800  55,632.57
+2025-10-29 10:46:00  35,950  35,950  35,950  35,950   30,200  55,632.57
+2025-10-29 10:47:00  35,950  35,950  35,900  35,900   36,900  46,941.67
+2025-10-29 10:48:00  35,950  35,950  35,900  35,950   38,900  54,582.54
+2025-10-29 10:49:00  35,950  35,950  35,900  35,900    6,500  47,254.08
+2025-10-29 10:50:00  35,900  35,950  35,900  35,900    9,800  47,254.08
+2025-10-29 10:51:00  35,900  35,900  35,900  35,900    1,500  47,254.08
+2025-10-29 10:52:00  35,900  35,900  35,900  35,900    6,300  47,254.08
+2025-10-29 10:53:00  35,950  35,950  35,900  35,950   20,500  55,322.47
+2025-10-29 10:54:00  35,900  35,950  35,900  35,900   21,400  47,497.95
+2025-10-29 10:55:00  35,900  35,950  35,900  35,950   21,900  54,437.74
+2025-10-29 10:56:00  35,950  35,950  35,900  35,900   30,300  47,654.21
+2025-10-29 10:57:00  35,900  35,950  35,900  35,900   20,500  47,654.21
+2025-10-29 10:58:00  35,900  35,900  35,900  35,900   14,800  47,654.21
+2025-10-29 10:59:00  35,900  35,950  35,900  35,950   13,000  54,703.91
+2025-10-29 11:00:00  35,900  35,950  35,900  35,950    8,300  54,703.91
+2025-10-29 11:01:00  35,950  35,950  35,900  35,900   18,300  47,313.87
+2025-10-29 11:02:00  35,900  35,900  35,900  35,900    8,600  47,313.87
+2025-10-29 11:03:00  35,900  35,950  35,900  35,950   22,300  54,450.33
+2025-10-29 11:04:00  35,900  35,950  35,900  35,900    8,400  47,518.69
+2025-10-29 11:05:00  35,950  35,950  35,950  35,950   78,600  53,846.13
+2025-10-29 11:06:00  36,000  36,000  36,000  36,000   62,000  59,150.08
+2025-10-29 11:07:00  36,000  36,000  35,950  36,000   32,700  59,150.08
+2025-10-29 11:08:00  35,950  36,000  35,950  36,000   56,000  59,150.08
+2025-10-29 11:09:00  36,000  36,000  36,000  36,000    6,500  59,150.08
+2025-10-29 11:10:00  35,950  36,050  35,950  36,050   86,200  64,618.98
+2025-10-29 11:11:00  36,050  36,050  36,000  36,050   50,800  64,618.98
+2025-10-29 11:12:00  36,050  36,050  36,000  36,000   10,900  55,934.26
+2025-10-29 11:13:00  36,050  36,050  36,000  36,050   41,800  61,505.81
+2025-10-29 11:14:00  36,000  36,050  36,000  36,050   76,200  61,505.81
+2025-10-29 11:15:00  36,050  36,050  36,000  36,050   26,000  61,505.81
+2025-10-29 11:16:00  36,050  36,100  36,000  36,050   33,300  61,505.81
+2025-10-29 11:17:00  36,050  36,100  36,050  36,100   15,700  67,100.79
+2025-10-29 11:18:00  36,100  36,100  36,050  36,050   36,500  58,019.23
+2025-10-29 11:19:00  36,050  36,050  36,000  36,050   11,700  58,019.23
+2025-10-29 11:20:00  36,050  36,050  36,000  36,050   20,800  58,019.23
+2025-10-29 11:21:00  36,050  36,050  36,000  36,050   13,900  58,019.23
+2025-10-29 11:22:00  36,050  36,050  36,000  36,050   29,900  58,019.23
+2025-10-29 11:23:00  36,050  36,050  36,000  36,000   15,700  48,509.23
+2025-10-29 11:24:00  36,000  36,100  36,000  36,050   31,600  56,234.67
+2025-10-29 11:25:00  36,050  36,100  36,050  36,050   24,000  56,234.67
+2025-10-29 11:26:00  36,100  36,100  36,000  36,000   24,000  47,899.83
+2025-10-29 11:27:00  36,050  36,100  36,000  36,100  139,400  60,507.23
+2025-10-29 11:28:00  36,100  36,100  36,050  36,050    6,300  53,532.06
+2025-10-29 11:29:00  36,050  36,100  36,050  36,050   53,500  53,532.06
+2025-10-29 13:00:00  36,100  36,100  36,050  36,050   50,100  53,532.06
+2025-10-29 13:01:00  36,050  36,100  36,050  36,100   44,200  59,380.45
+2025-10-29 13:02:00  36,100  36,100  36,000  36,050  100,300  52,292.69
+2025-10-29 13:03:00  36,050  36,050  36,000  36,050   23,400  52,292.69
+2025-10-29 13:04:00  36,050  36,050  36,000  36,050   22,300  52,292.69
+2025-10-29 13:05:00  36,050  36,050  36,000  36,050  111,600  52,292.69
+2025-10-29 13:06:00  36,050  36,050  36,050  36,050    2,700  52,292.69
+2025-10-29 13:07:00  36,000  36,050  36,000  36,000   52,300  44,584.19
+2025-10-29 13:08:00  36,000  36,050  36,000  36,000   16,600  44,584.19
+2025-10-29 13:09:00  36,000  36,000  36,000  36,000   99,700  44,584.19
+2025-10-29 13:10:00  36,000  36,000  36,000  36,000    8,200  44,584.19
+2025-10-29 13:11:00  36,000  36,000  35,950  36,000  207,600  44,584.19
+2025-10-29 13:12:00  36,000  36,000  36,000  36,000   46,200  44,584.19
+2025-10-29 13:13:00  36,000  36,000  36,000  36,000   16,700  44,584.19
+2025-10-29 13:14:00  36,000  36,000  35,950  35,950   76,700  35,734.81
+2025-10-29 13:15:00  35,950  36,000  35,950  35,950    3,400  35,734.81
+2025-10-29 13:16:00  35,950  36,000  35,950  35,950   25,500  35,734.81
+2025-10-29 13:17:00  36,000  36,000  35,950  35,950   52,800  35,734.81
+2025-10-29 13:18:00  36,000  36,000  36,000  36,000   41,000  49,276.68
+2025-10-29 13:19:00  36,000  36,000  35,950  36,000  100,100  49,276.68
+2025-10-29 13:20:00  36,000  36,050  36,000  36,050   44,400  59,238.20
+2025-10-29 13:21:00  36,050  36,050  36,000  36,000   26,600  48,896.72
+2025-10-29 13:22:00  36,000  36,050  36,000  36,050   41,300  56,983.89
+2025-10-29 13:23:00  36,050  36,100  36,050  36,050   50,100  56,983.89
+2025-10-29 13:24:00  36,050  36,100  36,050  36,050   31,400  56,983.89
+2025-10-29 13:25:00  36,050  36,100  36,050  36,100   58,400  64,082.97
+2025-10-29 13:26:00  36,050  36,150  36,050  36,100  110,600  64,082.97
+2025-10-29 13:27:00  36,150  36,150  36,050  36,100   26,800  64,082.97
+2025-10-29 13:28:00  36,100  36,150  36,100  36,150   41,700  70,221.07
+2025-10-29 13:29:00  36,150  36,200  36,100  36,200   82,700  74,849.78
+2025-10-29 13:30:00  36,150  36,200  36,150  36,150  147,400  64,117.07
+2025-10-29 13:31:00  36,200  36,450  36,150  36,450  222,500  81,374.22
+2025-10-29 13:32:00  36,450  36,450  36,200  36,200   81,400  56,841.32
+2025-10-29 13:33:00  36,200  36,250  36,200  36,200    7,900  56,841.32
+2025-10-29 13:34:00  36,200  36,300  36,200  36,300   23,500  62,136.84
+2025-10-29 13:35:00  36,200  36,250  36,200  36,250   17,700  58,285.97
+2025-10-29 13:36:00  36,250  36,250  36,200  36,200   21,600  54,639.28
+2025-10-29 13:37:00  36,250  36,250  36,250  36,250   18,100  57,502.67
+2025-10-29 13:38:00  36,250  36,300  36,250  36,250   47,700  57,502.67
+2025-10-29 13:39:00  36,250  36,300  36,200  36,250   42,100  57,502.67
+2025-10-29 13:40:00  36,250  36,300  36,250  36,300   20,500  60,608.37
+2025-10-29 13:41:00  36,300  36,300  36,250  36,250   33,300  56,186.42
+2025-10-29 13:42:00  36,300  36,350  36,250  36,300   82,200  59,378.15
+2025-10-29 13:43:00  36,300  36,400  36,250  36,400  203,400  64,887.42
+2025-10-29 13:44:00  36,350  36,500  36,300  36,400  177,400  64,887.42
+2025-10-29 13:45:00  36,450  36,450  36,350  36,400   69,500  64,887.42
+2025-10-29 13:46:00  36,400  36,450  36,350  36,400   48,600  64,887.42
+2025-10-29 13:47:00  36,400  36,400  36,300  36,300   51,400  54,876.78
+2025-10-29 13:48:00  36,350  36,350  36,300  36,300   48,100  54,876.78
+2025-10-29 13:49:00  36,300  36,300  36,300  36,300    9,800  54,876.78
+2025-10-29 13:50:00  36,350  36,350  36,250  36,250   25,000  50,054.33
+2025-10-29 13:51:00  36,300  36,300  36,250  36,300   18,700  54,372.42
+2025-10-29 13:52:00  36,250  36,300  36,200  36,300  108,100  54,372.42
+2025-10-29 13:53:00  36,300  36,300  36,250  36,250   25,400  49,417.43
+2025-10-29 13:54:00  36,300  36,300  36,250  36,250   10,200  49,417.43
+2025-10-29 13:55:00  36,250  36,300  36,250  36,250   19,400  49,417.43
+2025-10-29 13:56:00  36,250  36,300  36,250  36,250   49,600  49,417.43
+2025-10-29 13:57:00  36,300  36,300  36,250  36,250   21,800  49,417.43
+2025-10-29 13:58:00  36,250  36,300  36,250  36,300    5,300  55,315.91
+2025-10-29 13:59:00  36,300  36,350  36,300  36,300   58,000  55,315.91
+2025-10-29 14:00:00  36,300  36,350  36,300  36,350   11,600  60,639.12
+2025-10-29 14:01:00  36,300  36,350  36,300  36,350   10,500  60,639.12
+2025-10-29 14:02:00  36,300  36,350  36,300  36,300   24,300  53,278.09
+2025-10-29 14:03:00  36,350  36,400  36,350  36,400   45,400  62,961.95
+2025-10-29 14:04:00  36,400  36,400  36,400  36,400    7,700  62,961.95
+2025-10-29 14:05:00  36,400  36,500  36,350  36,400  725,600  62,961.95
+2025-10-29 14:06:00  36,450  36,800  36,450  36,800  559,300  81,803.78
+2025-10-29 14:07:00  36,800  36,900  36,700  36,700   93,300  71,949.45
+2025-10-29 14:08:00  36,650  36,700  36,600  36,700  167,100  71,949.45
+2025-10-29 14:09:00  36,700  36,700  36,650  36,650  122,200  67,251.63
+2025-10-29 14:10:00  36,650  36,700  36,650  36,650   25,500  67,251.63
+2025-10-29 14:11:00  36,700  36,700  36,650  36,650   63,800  67,251.63
+2025-10-29 14:12:00  36,650  36,650  36,600  36,600  131,600  62,180.81
+2025-10-29 14:13:00  36,600  36,600  36,550  36,600   56,400  62,180.81
+2025-10-29 14:14:00  36,550  36,600  36,550  36,550   35,600  57,180.53
+2025-10-29 14:15:00  36,550  36,600  36,450  36,450   76,700  48,738.88
+2025-10-29 14:16:00  36,550  36,550  36,500  36,500   33,300  52,513.75
+2025-10-29 14:17:00  36,450  36,500  36,450  36,450   20,500  48,655.17
+2025-10-29 14:18:00  36,500  36,500  36,400  36,450   52,600  48,655.17
+2025-10-29 14:19:00  36,450  36,450  36,400  36,450   23,200  48,655.17
+2025-10-29 14:20:00  36,450  36,450  36,400  36,400   55,900  44,565.34
+2025-10-29 14:21:00  36,400  36,400  36,300  36,300  112,200  37,733.75
+2025-10-29 14:22:00  36,300  36,300  36,250  36,250   70,500  34,856.59
+2025-10-29 14:23:00  36,300  36,350  36,250  36,300   17,100  39,799.88
+2025-10-29 14:24:00  36,300  36,350  36,300  36,350   57,000  44,347.80
+2025-10-29 14:25:00  36,350  36,400  36,250  36,400   60,100  48,534.89
+2025-10-29 14:26:00  36,300  36,300  36,250  36,250   26,700  39,044.29
+2025-10-29 14:27:00  36,250  36,250  36,200  36,250  120,700  39,044.29
+2025-10-29 14:28:00  36,250  36,300  36,250  36,250  215,800  39,044.29
+2025-10-29 14:29:00  36,250  36,350  36,250  36,300   52,400  43,633.07
+2025-10-29 14:45:00  36,400  36,400  36,400  36,400  476,900  51,497.40
+2025-10-30 09:15:00  36,500  36,600  36,450  36,450  144,400  54,886.61
+2025-10-30 09:16:00  36,400  36,500  36,400  36,500   41,200  58,043.89
+2025-10-30 09:17:00  36,500  36,500  36,400  36,450   17,900  53,975.79
+2025-10-30 09:18:00  36,500  36,500  36,400  36,400   16,900  50,187.73
+2025-10-30 09:19:00  36,400  36,400  36,400  36,400   25,400  50,187.73
+2025-10-30 09:20:00  36,400  36,400  36,400  36,400   21,400  50,187.73
+2025-10-30 09:21:00  36,400  36,400  36,350  36,400   34,200  50,187.73
+2025-10-30 09:22:00  36,400  36,450  36,400  36,400   17,400  50,187.73
+2025-10-30 09:23:00  36,400  36,450  36,400  36,400   36,000  50,187.73
+2025-10-30 09:24:00  36,400  36,450  36,400  36,450   11,900  55,102.96
+2025-10-30 09:25:00  36,500  36,500  36,450  36,450   16,600  55,102.96
+2025-10-30 09:26:00  36,450  36,500  36,450  36,450   19,900  55,102.96
+2025-10-30 09:27:00  36,450  36,450  36,450  36,450    7,600  55,102.96
+2025-10-30 09:28:00  36,450  36,500  36,450  36,450   15,400  55,102.96
+2025-10-30 09:29:00  36,500  36,500  36,450  36,500   96,700  60,717.68
+2025-10-30 09:30:00  36,500  36,550  36,500  36,500   36,700  60,717.68
+2025-10-30 09:31:00  36,500  36,500  36,450  36,500   83,600  60,717.68
+2025-10-30 09:32:00  36,500  36,500  36,400  36,400  188,200  46,265.04
+2025-10-30 09:33:00  36,450  36,500  36,400  36,450   48,300  52,369.80
+2025-10-30 09:34:00  36,450  36,450  36,400  36,400   85,400  46,660.93
+2025-10-30 09:35:00  36,350  36,350  36,350  36,350      100  41,758.63
+2025-10-30 09:36:00  36,400  36,400  36,350  36,350    5,900  41,758.63
+2025-10-30 09:37:00  36,400  36,400  36,350  36,350    3,200  41,758.63
+2025-10-30 09:38:00  36,400  36,400  36,350  36,350    4,100  41,758.63
+2025-10-30 09:39:00  36,350  36,400  36,300  36,400   35,500  48,969.90
+2025-10-30 09:40:00  36,350  36,350  36,300  36,350    2,700  43,208.43
+2025-10-30 09:41:00  36,350  36,350  36,300  36,350   44,200  43,208.43
+2025-10-30 09:42:00  36,300  36,350  36,300  36,350   13,500  43,208.43
+2025-10-30 09:43:00  36,350  36,400  36,350  36,400   40,200  50,484.54
+2025-10-30 09:44:00  36,350  36,400  36,350  36,400    9,900  50,484.54
+2025-10-30 09:45:00  36,400  36,400  36,300  36,400    9,900  50,484.54
+2025-10-30 09:46:00  36,400  36,400  36,350  36,350    4,900  43,520.47
+2025-10-30 09:47:00  36,400  36,400  36,350  36,350   23,800  43,520.47
+2025-10-30 09:48:00  36,350  36,400  36,300  36,300    9,400  37,518.20
+2025-10-30 09:49:00  36,350  36,350  36,300  36,350    2,400  45,598.34
+2025-10-30 09:50:00  36,350  36,350  36,300  36,300    7,300  40,024.26
+2025-10-30 09:51:00  36,300  36,350  36,300  36,350   27,400  47,001.34
+2025-10-30 09:52:00  36,350  36,350  36,350  36,350    6,600  47,001.34
+2025-10-30 09:53:00  36,300  36,300  36,300  36,300   66,200  41,413.89
+2025-10-30 09:54:00  36,300  36,350  36,300  36,300   42,100  41,413.89
+2025-10-30 09:55:00  36,300  36,350  36,250  36,250   45,800  36,395.95
+2025-10-30 09:56:00  36,250  36,300  36,250  36,300   63,300  43,737.43
+2025-10-30 09:57:00  36,250  36,300  36,250  36,250    8,100  38,901.80
+2025-10-30 09:58:00  36,250  36,250  36,200  36,200    5,600  34,762.76
+2025-10-30 09:59:00  36,200  36,200  36,100  36,150   57,500  31,189.07
+2025-10-30 10:00:00  36,200  36,200  36,200  36,200    1,900  38,047.80
+2025-10-30 10:01:00  36,200  36,250  36,200  36,250   51,300  44,053.26
+2025-10-30 10:02:00  36,250  36,300  36,200  36,300   30,200  49,341.67
+2025-10-30 10:03:00  36,250  36,250  36,200  36,250   14,400  44,782.90
+2025-10-30 10:04:00  36,250  36,250  36,200  36,200    7,000  40,730.29
+2025-10-30 10:05:00  36,250  36,250  36,150  36,150   82,500  37,113.37
+2025-10-30 10:06:00  36,200  36,200  36,200  36,200      600  42,602.44
+2025-10-30 10:07:00  36,200  36,200  36,150  36,200   24,600  42,602.44
+2025-10-30 10:08:00  36,200  36,200  36,150  36,150    5,500  38,686.23
+2025-10-30 10:09:00  36,150  36,200  36,150  36,150   37,200  38,686.23
+2025-10-30 10:10:00  36,150  36,150  36,100  36,100   41,900  34,959.20
+2025-10-30 10:11:00  36,100  36,100  36,050  36,050   40,400  31,673.10
+2025-10-30 10:12:00  36,050  36,100  36,050  36,100   42,700  37,953.95
+2025-10-30 10:13:00  36,100  36,150  36,050  36,100   31,500  37,953.95
+2025-10-30 10:14:00  36,050  36,100  36,050  36,100   29,400  37,953.95
+2025-10-30 10:15:00  36,100  36,100  36,050  36,100   10,500  37,953.95
+2025-10-30 10:16:00  36,100  36,100  36,050  36,100   17,400  37,953.95
+2025-10-30 10:17:00  36,100  36,100  36,100  36,100   10,700  37,953.95
+2025-10-30 10:18:00  36,100  36,150  36,100  36,100   62,300  37,953.95
+2025-10-30 10:19:00  36,100  36,100  36,100  36,100   29,300  37,953.95
+2025-10-30 10:20:00  36,100  36,150  36,100  36,100   49,300  37,953.95
+2025-10-30 10:21:00  36,100  36,150  36,100  36,150   20,000  47,378.35
+2025-10-30 10:22:00  36,150  36,150  36,100  36,100    6,400  40,717.82
+2025-10-30 10:23:00  36,100  36,100  36,100  36,100   16,500  40,717.82
+2025-10-30 10:24:00  36,100  36,150  36,100  36,150   24,400  49,028.32
+2025-10-30 10:25:00  36,100  36,150  36,100  36,150   13,000  49,028.32
+2025-10-30 10:26:00  36,150  36,150  36,100  36,100   26,200  42,171.93
+2025-10-30 10:27:00  36,100  36,100  36,050  36,100   41,400  42,171.93
+2025-10-30 10:28:00  36,050  36,100  36,050  36,050   67,600  36,286.67
+2025-10-30 10:29:00  36,050  36,050  36,000  36,050   86,700  36,286.67
+2025-10-30 10:30:00  36,000  36,050  36,000  36,050   84,800  36,286.67
+2025-10-30 10:31:00  36,050  36,050  36,000  36,000   55,400  30,900.70
+2025-10-30 10:32:00  36,050  36,050  36,000  36,050   27,100  40,423.73
+2025-10-30 10:33:00  36,050  36,100  36,000  36,050   25,500  40,423.73
+2025-10-30 10:34:00  36,050  36,050  36,050  36,050   11,200  40,423.73
+2025-10-30 10:35:00  36,050  36,100  36,050  36,050   37,600  40,423.73
+2025-10-30 10:36:00  36,050  36,050  36,050  36,050   15,900  40,423.73
+2025-10-30 10:37:00  36,050  36,100  36,050  36,100   46,200  50,337.77
+2025-10-30 10:38:00  36,100  36,150  36,100  36,100   55,000  50,337.77
+2025-10-30 10:39:00  36,150  36,150  36,050  36,100   13,500  50,337.77
+2025-10-30 10:40:00  36,100  36,200  36,100  36,100   30,600  50,337.77
+2025-10-30 10:41:00  36,200  36,250  36,100  36,250   58,700  70,288.60
+2025-10-30 10:42:00  36,250  36,250  36,200  36,200    3,700  61,429.76
+2025-10-30 10:43:00  36,200  36,200  36,200  36,200    1,500  61,429.76
+2025-10-30 10:44:00  36,150  36,150  36,100  36,100   61,400  47,533.67
+2025-10-30 10:45:00  36,100  36,150  36,100  36,150   20,100  53,230.47
+2025-10-30 10:46:00  36,150  36,150  36,100  36,150   17,400  53,230.47
+2025-10-30 10:47:00  36,150  36,150  36,100  36,100    9,800  47,277.00
+2025-10-30 10:48:00  36,100  36,150  36,100  36,100   89,600  47,277.00
+2025-10-30 10:49:00  36,100  36,150  36,100  36,100   18,100  47,277.00
+2025-10-30 10:50:00  36,100  36,150  36,000  36,000   40,600  36,953.09
+2025-10-30 10:51:00  36,000  36,050  36,000  36,000   16,500  36,953.09
+2025-10-30 10:52:00  36,000  36,050  36,000  36,000   29,100  36,953.09
+2025-10-30 10:53:00  36,000  36,100  36,000  36,050   10,600  44,519.02
+2025-10-30 10:54:00  36,050  36,050  36,000  36,000   66,800  39,424.02
+2025-10-30 10:55:00  36,000  36,000  35,950  36,000    8,200  39,424.02
+2025-10-30 10:56:00  36,000  36,000  36,000  36,000   11,300  39,424.02
+2025-10-30 10:57:00  36,000  36,000  35,950  36,000   53,400  39,424.02
+2025-10-30 10:58:00  36,000  36,250  35,950  36,100  173,800  53,683.49
+2025-10-30 10:59:00  36,100  36,100  36,050  36,100    6,400  53,683.49
+2025-10-30 11:00:00  36,100  36,100  36,050  36,050   18,600  47,235.68
+2025-10-30 11:01:00  36,050  36,200  36,050  36,200   23,100  61,986.48
+2025-10-30 11:02:00  36,200  36,300  36,200  36,200   57,000  61,986.48
+2025-10-30 11:03:00  36,200  36,250  36,100  36,100   18,100  50,969.48
+2025-10-30 11:04:00  36,100  36,200  36,100  36,200   19,200  58,846.44
+2025-10-30 11:05:00  36,150  36,150  36,150  36,150    3,000  54,161.16
+2025-10-30 11:06:00  36,150  36,150  36,100  36,100   16,600  49,883.96
+2025-10-30 11:07:00  36,100  36,100  36,100  36,100    5,800  49,883.96
+2025-10-30 11:08:00  36,050  36,100  36,050  36,050   14,700  45,698.49
+2025-10-30 11:09:00  36,050  36,050  36,000  36,050    9,900  45,698.49
+2025-10-30 11:10:00  36,050  36,050  36,000  36,050   11,500  45,698.49
+2025-10-30 11:11:00  36,050  36,050  36,050  36,050   10,400  45,698.49
+2025-10-30 11:12:00  36,000  36,100  36,000  36,050   24,200  45,698.49
+2025-10-30 11:13:00  36,050  36,050  36,050  36,050    8,200  45,698.49
+2025-10-30 11:14:00  36,050  36,050  36,000  36,000   66,200  40,409.49
+2025-10-30 11:15:00  36,000  36,000  36,000  36,000    2,400  40,409.49
+2025-10-30 11:16:00  36,000  36,000  36,000  36,000   11,100  40,409.49
+2025-10-30 11:17:00  36,000  36,000  35,950  36,000   37,500  40,409.49
+2025-10-30 11:18:00  36,000  36,000  36,000  36,000   12,900  40,409.49
+2025-10-30 11:19:00  36,000  36,050  36,000  36,050   21,400  48,965.30
+2025-10-30 11:20:00  36,000  36,200  36,000  36,000   65,300  42,408.11
+2025-10-30 11:21:00  36,000  36,300  36,000  36,300   92,100  69,124.55
+2025-10-30 11:22:00  36,250  36,250  36,000  36,100    6,900  51,854.39
+2025-10-30 11:23:00  36,100  36,250  36,000  36,250   15,300  59,938.58
+2025-10-30 11:24:00  36,000  36,100  36,000  36,050   10,600  48,294.60
+2025-10-30 11:25:00  36,050  36,300  36,050  36,300   18,800  59,013.11
+2025-10-30 11:26:00  36,200  36,300  36,000  36,050   39,800  48,243.05
+2025-10-30 11:27:00  36,050  36,150  36,050  36,050   11,500  48,243.05
+2025-10-30 11:28:00  36,300  36,300  36,050  36,050   28,500  48,243.05
+2025-10-30 11:29:00  36,100  36,100  36,100  36,100    1,400  50,499.69
+2025-10-30 13:00:00  36,100  36,200  36,050  36,100   74,500  50,499.69
+2025-10-30 13:01:00  36,050  36,050  36,000  36,050   18,800  48,069.01
+2025-10-30 13:02:00  36,050  36,100  36,000  36,000   47,000  45,700.14
+2025-10-30 13:03:00  36,000  36,000  36,000  36,000    3,600  45,700.14
+2025-10-30 13:04:00  36,000  36,100  36,000  36,000   93,500  45,700.14
+2025-10-30 13:05:00  35,950  36,000  35,950  36,000    6,200  45,700.14
+2025-10-30 13:06:00  35,950  35,950  35,950  35,950  107,200  42,859.22
+2025-10-30 13:07:00  35,950  36,050  35,900  36,050  153,700  49,606.53
+2025-10-30 13:08:00  36,050  36,100  36,000  36,000   33,000  46,640.97
+2025-10-30 13:09:00  36,000  36,100  35,950  35,950   51,900  43,819.84
+2025-10-30 13:10:00  36,100  36,100  35,950  36,000   23,900  47,255.55
+2025-10-30 13:11:00  36,000  36,050  36,000  36,000   12,400  47,255.55
+2025-10-30 13:12:00  36,000  36,050  35,950  35,950   20,900  44,125.89
+2025-10-30 13:13:00  35,950  36,000  35,950  36,000   23,700  47,845.69
+2025-10-30 13:14:00  36,000  36,000  35,900  36,000  133,500  47,845.69
+2025-10-30 13:15:00  36,000  36,000  35,900  35,900   13,300  41,445.60
+2025-10-30 13:16:00  35,950  35,950  35,900  35,950   35,000  45,379.75
+2025-10-30 13:17:00  35,900  35,950  35,900  35,900    6,900  42,317.79
+2025-10-30 13:18:00  35,900  35,900  35,900  35,900   20,300  42,317.79
+2025-10-30 13:19:00  35,900  35,950  35,900  35,900    6,100  42,317.79
+2025-10-30 13:20:00  35,950  36,000  35,900  35,950  132,900  46,801.06
+2025-10-30 13:21:00  35,950  36,000  35,950  36,000   26,300  50,910.01
+2025-10-30 13:22:00  36,000  36,000  35,950  35,950    4,700  47,000.56
+2025-10-30 13:23:00  35,950  36,000  35,950  36,000   22,900  51,048.75
+2025-10-30 13:24:00  36,000  36,000  35,950  36,000   37,400  51,048.75
+2025-10-30 13:25:00  36,050  36,050  36,000  36,050   14,600  55,032.20
+2025-10-30 13:26:00  36,050  36,050  36,000  36,000   18,300  50,598.01
+2025-10-30 13:27:00  36,050  36,050  36,000  36,050   40,500  54,542.48
+2025-10-30 13:28:00  36,050  36,050  36,000  36,050   10,400  54,542.48
+2025-10-30 13:29:00  36,000  36,050  36,000  36,000   84,100  49,919.88
+2025-10-30 13:30:00  36,000  36,100  35,950  35,950   82,800  45,744.68
+2025-10-30 13:31:00  35,950  36,050  35,950  36,050   35,300  54,026.50
+2025-10-30 13:32:00  36,000  36,050  36,000  36,000    7,400  49,923.13
+2025-10-30 13:33:00  36,000  36,000  36,000  36,000    1,500  49,923.13
+2025-10-30 13:34:00  35,950  36,000  35,950  35,950    3,300  45,881.65
+2025-10-30 13:35:00  35,950  36,000  35,950  35,950   26,400  45,881.65
+2025-10-30 13:36:00  35,950  35,950  35,950  35,950   38,100  45,881.65
+2025-10-30 13:37:00  35,950  36,000  35,950  35,950    8,200  45,881.65
+2025-10-30 13:38:00  35,950  35,950  35,900  35,950  104,700  45,881.65
+2025-10-30 13:39:00  35,950  35,950  35,950  35,950    9,200  45,881.65
+2025-10-30 13:40:00  35,950  35,950  35,900  35,950   33,700  45,881.65
+2025-10-30 13:41:00  35,950  35,950  35,900  35,900   14,200  40,388.84
+2025-10-30 13:42:00  35,900  35,900  35,900  35,900    2,300  40,388.84
+2025-10-30 13:43:00  35,900  35,950  35,900  35,900   60,800  40,388.84
+2025-10-30 13:44:00  35,950  35,950  35,950  35,950    2,500  48,142.72
+2025-10-30 13:45:00  35,950  35,950  35,900  35,950   75,000  48,142.72
+2025-10-30 13:46:00  35,900  35,950  35,900  35,950    7,400  48,142.72
+2025-10-30 13:47:00  35,900  35,950  35,900  35,900   54,600  41,414.53
+2025-10-30 13:48:00  35,900  35,900  35,900  35,900    8,600  41,414.53
+2025-10-30 13:49:00  35,950  35,950  35,850  35,850  212,900  35,638.20
+2025-10-30 13:50:00  35,900  36,000  35,850  36,000   31,000  55,631.37
+2025-10-30 13:52:00  36,000  36,000  36,000  36,000    5,300  55,631.37
+2025-10-30 13:53:00  35,950  35,950  35,900  35,950  177,000  49,666.94
+2025-10-30 13:54:00  35,950  35,950  35,900  35,900   28,300  44,525.94
+2025-10-30 13:55:00  35,900  35,900  35,850  35,900   11,000  44,525.94
+2025-10-30 13:56:00  35,900  35,900  35,850  35,850    8,200  39,753.66
+2025-10-30 13:57:00  35,900  35,900  35,850  35,900   85,900  45,987.97
+2025-10-30 13:58:00  35,850  35,900  35,800  35,850  151,000  41,376.91
+2025-10-30 13:59:00  35,</t>
+  </si>
+  <si>
+    <t>Tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay</t>
+  </si>
+  <si>
+    <t>Dưới đây là bảng tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay theo khung thời gian 1 phút (một phần dữ liệu mẫu):
+Thời gian Giá đóng cửa SMA9 SMA20
+2025-11-03 09:15 35,150 35,150.00 35,150.00
+2025-11-03 09:16 35,200 35,175.00 35,175.00
+2025-11-03 09:17 35,250 35,200.00 35,200.00
+2025-11-03 09:18 35,450 35,262.50 35,262.50
+2025-11-03 09:19 35,500 35,310.00 35,310.00
+... ... ... ...
+2025-11-10 14:28 33,250 33,244.44 33,280.00
+2025-11-10 14:29 33,050 33,227.78 33,265.00
+2025-11-10 14:30 NaN 33,243.75 33,260.53
+2025-11-10 14:45 33,400 33,262.50 33,263.16
+2025-11-10 14:46 NaN 33,264.29 33,258.33
+Nếu bạn cần toàn bộ dữ liệu hoặc phân tích chi tiết hơn, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
+  </si>
+  <si>
+    <t>Tổng số dòng: 25
+=== TẤT CẢ DỮ LIỆU (25 DÒNG) ===
+time                 open    high    low     close   volume       SMA9      SMA20
+-------------------  ------  ------  ------  ------  ------  ---------  ---------
+2025-10-10 00:00:00  39,100  39,900  39,000  39,350   20.3M  N/A        N/A      
+2025-10-13 00:00:00  39,300  41,500  39,250  41,300   43.3M  N/A        N/A      
+2025-10-14 00:00:00  41,750  42,000  40,550  40,800   25.9M  N/A        N/A      
+2025-10-15 00:00:00  41,000  41,350  40,550  40,800   13.3M  N/A        N/A      
+2025-10-16 00:00:00  41,200  41,250  40,800  41,250   20.2M  N/A        N/A      
+2025-10-17 00:00:00  41,650  41,650  40,450  40,650   18.7M  N/A        N/A      
+2025-10-20 00:00:00  40,650  40,650  37,850  37,850   30.0M  N/A        N/A      
+2025-10-21 00:00:00  38,100  38,450  36,500  37,650   28.6M  N/A        N/A      
+2025-10-22 00:00:00  38,100  38,150  36,400  38,000   15.7M  39,738.89  N/A      
+2025-10-23 00:00:00  38,050  38,050  36,800  37,250   15.6M  39,505.56  N/A      
+2025-10-24 00:00:00  37,000  37,000  36,050  36,100   23.4M  38,927.78  N/A      
+2025-10-27 00:00:00  36,300  36,500  35,050  35,050   15.9M  38,288.89  N/A      
+2025-10-28 00:00:00  35,050  36,400  34,000  36,000   26.1M  37,755.56  N/A      
+2025-10-29 00:00:00  35,900  36,900  35,650  36,400   13.1M  37,216.67  N/A      
+2025-10-30 00:00:00  36,500  36,600  35,600  35,700   10.5M  36,666.67  N/A      
+2025-10-31 00:00:00  35,700  36,200  35,100  35,100   12.3M  36,361.11  N/A      
+2025-11-03 00:00:00  35,100  35,500  33,600  33,600   16.7M  35,911.11  N/A      
+2025-11-04 00:00:00  33,600  35,200  33,450  35,000   16.1M  35,577.78  N/A      
+2025-11-05 00:00:00  34,900  34,900  34,050  34,100   11.2M  35,227.78  N/A      
+2025-11-06 00:00:00  34,150  34,500  33,500  33,600   13.7M     34,950  37,277.50
+2025-11-07 00:00:00  33,600  33,950  33,000  33,000   16.1M  34,722.22     36,960
+2025-11-10 00:00:00  33,300  33,600  32,950  33,400    8.8M  34,433.33     36,565
+2025-11-11 00:00:00  33,450  34,000  33,350  33,650   11.2M  34,127.78  36,207.50
+2025-11-12 00:00:00  33,700  35,000  33,600  35,000   12.0M     34,050  35,917.50
+2025-11-13 00:00:00  34,650  35,500  34,600  35,100   12.5M     34,050     35,610
 === PHÂN TÍCH ===
-Dựa trên dữ liệu cung cấp về cổ phiếu VIC, trong khoảng thời gian 2 tháng (từ 2025-09-11 đến 2025-11-13) với timeframe 1 ngày, giá trị SMA9 và SMA20 được tính như sau:
-*   **SMA9 (Đường trung bình di động 9 ngày):**
-    *   Giá trị SMA9 bắt đầu có số liệu từ ngày 2025-10-01 (không có trong dữ liệu mẫu)
-    *   Giá trị SMA9 cuối cùng trong dữ liệu mẫu là 203.64 (tại ngày 2025-11-13)
-*   **SMA20 (Đường trung bình di động 20 ngày):**
-    *   Giá trị SMA20 bắt đầu có số liệu từ ngày 2025-10-06 (không có trong dữ liệu mẫu)
-    *   Giá trị SMA20 cuối cùng trong dữ liệu mẫu là 205.665 (tại ngày 2025-11-13)
-**Lưu ý quan trọng:** Để tính toán chính xác SMA9 và SMA20, cần có dữ liệu giá đóng cửa (close) của cổ phiếu VIC trong khoảng thời gian 2 tháng đầy đủ, bao gồm cả các ngày từ 2025-09-11 đến 2025-11-13. Dữ liệu mẫu chỉ cung cấp một phần.
-================================================================================</t>
+Dựa trên dữ liệu cổ phiếu mã TCB từ đầu tháng 11 đến nay, ta có các chỉ số quan trọng sau:
+*   **SMA9 (Trung bình động giản đơn 9 kỳ):**
+    *   Ngày 07/11/2025: 34.722222
+    *   Ngày 10/11/2025: 34.433333
+    *   Ngày 11/11/2025: 34.127778
+    *   Ngày 12/11/2025: 34.050000
+    *   Ngày 13/11/2025: 34.050000
+*   **SMA20 (Trung bình động giản đơn 20 kỳ):**
+    *   Ngày 07/11/2025: 36.9600
+    *   Ngày 10/11/2025: 36.5650
+    *   Ngày 11/11/2025: 36.2075
+    *   Ngày 12/11/2025: 35.9175
+    *   Ngày 13/11/2025: 35.6100
+Nhận xét:
+Trong giai đoạn từ ngày 07/11/2025 đến ngày 13/11/2025, cả chỉ số SMA9 và SMA20 của mã TCB đều có xu hướng giảm dần. Điều này cho thấy giá đóng cửa trung bình trong 9 ngày và 20 ngày gần nhất đang có dấu hiệu điều chỉnh giảm.</t>
   </si>
 </sst>
 </file>
@@ -800,16 +1200,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -839,13 +1246,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,19 +1561,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,151 +1584,207 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
